--- a/2A/Stage France/DonnéeMétéo.xlsx
+++ b/2A/Stage France/DonnéeMétéo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Cours_ISARA\2A\Stage France\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21935D07-54E8-459B-BE07-E06B58E339E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE4E9F-7EDB-4306-A867-51D9617C1199}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{468FC0A4-B7E4-4DF0-A9D5-6E3CD3093DA7}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Diagramme ombro-thermique de la commune de Loudes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Précipitations annuelles (mm)</t>
   </si>
@@ -89,6 +86,21 @@
   <si>
     <t>Température moyenne mensuelle (°C)</t>
   </si>
+  <si>
+    <t>Diagramme ombro-thermique de la commune de Loudes (43)</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>nb de jours de gel</t>
+  </si>
+  <si>
+    <t>nb de jours &gt; 25°C</t>
+  </si>
+  <si>
+    <t>Jours avec pluies (&gt;=5mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,13 +138,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,7 +379,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="15"/>
         <c:axId val="895520208"/>
         <c:axId val="895519552"/>
       </c:barChart>
@@ -398,7 +410,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -801,6 +825,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="919368328"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1378,6 +1403,380 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jours avec pluies (&gt;=5mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$A$3:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$H$3:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BA3-4FA7-AF48-720A9CD17B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="786217536"/>
+        <c:axId val="786217864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="786217536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786217864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="786217864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786217536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1458,6 +1857,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2111,6 +2550,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2469,14 +3424,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1097280</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>1112520</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2505,14 +3460,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1120140</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2533,6 +3488,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1013460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE818F-C736-4E04-ACA4-6AB457F656C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2838,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E280A6D-3D20-46F7-BA89-E6298CEEF773}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,34 +3844,43 @@
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>38.5</v>
@@ -2895,10 +3895,19 @@
         <f>B3-D3</f>
         <v>26.4</v>
       </c>
+      <c r="F3">
+        <v>5.3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>31.3</v>
@@ -2913,10 +3922,19 @@
         <f t="shared" ref="E4:E14" si="0">B4-D4</f>
         <v>10.7</v>
       </c>
+      <c r="F4">
+        <v>3.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -2931,10 +3949,19 @@
         <f t="shared" si="0"/>
         <v>-17.700000000000003</v>
       </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>60.2</v>
@@ -2949,10 +3976,19 @@
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>81.7</v>
@@ -2967,10 +4003,19 @@
         <f t="shared" si="0"/>
         <v>-16.200000000000003</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1.3</v>
+      </c>
+      <c r="H7">
+        <v>5.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>69.099999999999994</v>
@@ -2985,10 +4030,19 @@
         <f t="shared" si="0"/>
         <v>-48.900000000000006</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>7.2</v>
+      </c>
+      <c r="H8">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>58.6</v>
@@ -3003,10 +4057,19 @@
         <f t="shared" si="0"/>
         <v>-74.800000000000011</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>14.9</v>
+      </c>
+      <c r="H9">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>64</v>
@@ -3021,10 +4084,19 @@
         <f t="shared" si="0"/>
         <v>-48.900000000000006</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>13.3</v>
+      </c>
+      <c r="H10">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>73.400000000000006</v>
@@ -3039,10 +4111,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3.9</v>
+      </c>
+      <c r="H11">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>71.400000000000006</v>
@@ -3057,10 +4138,19 @@
         <f t="shared" si="0"/>
         <v>36.100000000000009</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>54.7</v>
@@ -3075,10 +4165,19 @@
         <f t="shared" si="0"/>
         <v>39.200000000000003</v>
       </c>
+      <c r="F13">
+        <v>1.6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>42.4</v>
@@ -3092,6 +4191,44 @@
       <c r="E14">
         <f t="shared" si="0"/>
         <v>31.7</v>
+      </c>
+      <c r="F14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B3:B14)</f>
+        <v>678.3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="C15:F15" si="1">SUM(D3:D14)</f>
+        <v>744.19999999999993</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-65.900000000000006</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G3:G14)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H3:H14)</f>
+        <v>40.999999999999993</v>
       </c>
     </row>
   </sheetData>
